--- a/artfynd/A 46130-2020.xlsx
+++ b/artfynd/A 46130-2020.xlsx
@@ -683,7 +683,7 @@
         <v>112228717</v>
       </c>
       <c r="B2" t="n">
-        <v>95731</v>
+        <v>95906</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>112228743</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 46130-2020.xlsx
+++ b/artfynd/A 46130-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112228717</v>
+        <v>112228743</v>
       </c>
       <c r="B2" t="n">
-        <v>95906</v>
+        <v>89553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220686</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kambräken</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Blechnum spicant</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Roth</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>496716</v>
+        <v>496748</v>
       </c>
       <c r="R2" t="n">
-        <v>6934702</v>
+        <v>6934742</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112228743</v>
+        <v>112228717</v>
       </c>
       <c r="B3" t="n">
-        <v>89539</v>
+        <v>95921</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>220686</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kambräken</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Blechnum spicant</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Roth</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>496748</v>
+        <v>496716</v>
       </c>
       <c r="R3" t="n">
-        <v>6934742</v>
+        <v>6934702</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
